--- a/templates/levels.xlsx
+++ b/templates/levels.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akwasi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akwasi\Documents\React\school-portal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E157C-2E03-4D57-99E4-25E587A1A6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA0B90-0FC9-4666-8C0E-30A26F04A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1896" windowWidth="17280" windowHeight="8880" xr2:uid="{FDD74CD2-91E3-4BE0-94AC-08D86CD852CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDD74CD2-91E3-4BE0-94AC-08D86CD852CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grades" sheetId="1" r:id="rId1"/>
+    <sheet name="Levels" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -63,13 +73,202 @@
     <t>Basic 6</t>
   </si>
   <si>
-    <t>J.H.S 1</t>
+    <t>A</t>
   </si>
   <si>
-    <t>J.H.S 2</t>
+    <t>B</t>
   </si>
   <si>
-    <t>J.H.S 3</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Level Type</t>
+  </si>
+  <si>
+    <t>Nursery 1</t>
+  </si>
+  <si>
+    <t>Nursery 2</t>
+  </si>
+  <si>
+    <t>Basic 7</t>
+  </si>
+  <si>
+    <t>Basic 8</t>
+  </si>
+  <si>
+    <t>Basic 9</t>
+  </si>
+  <si>
+    <t>Basic 10</t>
+  </si>
+  <si>
+    <t>Basic 11</t>
+  </si>
+  <si>
+    <t>Basic 12</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Class 3</t>
+  </si>
+  <si>
+    <t>Class 4</t>
+  </si>
+  <si>
+    <t>Class 5</t>
+  </si>
+  <si>
+    <t>Class 6</t>
+  </si>
+  <si>
+    <t>Class 7</t>
+  </si>
+  <si>
+    <t>Class 8</t>
+  </si>
+  <si>
+    <t>Class 9</t>
+  </si>
+  <si>
+    <t>Class 10</t>
+  </si>
+  <si>
+    <t>Class 11</t>
+  </si>
+  <si>
+    <t>Class 12</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Stage 8</t>
+  </si>
+  <si>
+    <t>Stage 9</t>
+  </si>
+  <si>
+    <t>Stage 10</t>
+  </si>
+  <si>
+    <t>Stage 11</t>
+  </si>
+  <si>
+    <t>Stage 12</t>
+  </si>
+  <si>
+    <t>Junior High School 1</t>
+  </si>
+  <si>
+    <t>Junior High School 2</t>
+  </si>
+  <si>
+    <t>Junior High School 3</t>
+  </si>
+  <si>
+    <t>Senior High School 1</t>
+  </si>
+  <si>
+    <t>Senior High School 2</t>
+  </si>
+  <si>
+    <t>Senior High School 3</t>
   </si>
 </sst>
 </file>
@@ -143,8 +342,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}" name="Grades" displayName="Grades" ref="A1:B30" totalsRowShown="0">
-  <autoFilter ref="A1:B30" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}" name="Grades" displayName="Grades" ref="A1:B100" totalsRowShown="0">
+  <autoFilter ref="A1:B100" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{29693C88-D2FA-454E-8776-AE145C3A3774}" name="name"/>
     <tableColumn id="3" xr3:uid="{BC045975-F5CC-44E2-8F79-3D6E44DC3CA6}" name="type"/>
@@ -453,12 +652,12 @@
   <dimension ref="A1:G2156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -550,21 +749,21 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
@@ -11267,8 +11466,373 @@
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB8A4D37-4ED1-4DBD-A956-8B6FD5CABAA1}">
+          <x14:formula1>
+            <xm:f>Data!$A$2:$A$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BFDB6FFD-3019-4B2C-9199-34359077DEF4}">
+          <x14:formula1>
+            <xm:f>Data!$B$2:$B$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F5E7FE-27E2-4915-A8DA-BE518AC152DD}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cgPv8s/Q1YWUvXZjohg9V1JyZVN8POOBtLNGz0pSF2lqWdunizO2a9RoUId+zosbMSuvqSy+emSZ2xWdd0r+uQ==" saltValue="euPthaqIQ+LBTEc/Ih+Z8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/levels.xlsx
+++ b/templates/levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akwasi\Documents\React\school-portal\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA0B90-0FC9-4666-8C0E-30A26F04A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74650EF0-7274-4D8B-B67F-EB84C82835F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDD74CD2-91E3-4BE0-94AC-08D86CD852CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -270,6 +270,15 @@
   <si>
     <t>Senior High School 3</t>
   </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>J.H.S 1</t>
+  </si>
+  <si>
+    <t>J.H.S 2</t>
+  </si>
 </sst>
 </file>
 
@@ -342,11 +351,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}" name="Grades" displayName="Grades" ref="A1:B100" totalsRowShown="0">
-  <autoFilter ref="A1:B100" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}" name="Grades" displayName="Grades" ref="A1:C100" totalsRowShown="0">
+  <autoFilter ref="A1:C100" xr:uid="{184CE45F-85DE-4373-9BE3-4433EDB60ECE}"/>
+  <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{29693C88-D2FA-454E-8776-AE145C3A3774}" name="name"/>
     <tableColumn id="3" xr3:uid="{BC045975-F5CC-44E2-8F79-3D6E44DC3CA6}" name="type"/>
+    <tableColumn id="1" xr3:uid="{C429FAC5-E0CA-4907-B8B3-53E4A6607AE2}" name="initials"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,7 +662,7 @@
   <dimension ref="A1:G2156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +686,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -751,12 +764,18 @@
       <c r="A12" t="s">
         <v>72</v>
       </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
